--- a/intermediate/ResearchPapers/FullPapers/FullPapers-ClustersSize-S=H-k=8.xlsx
+++ b/intermediate/ResearchPapers/FullPapers/FullPapers-ClustersSize-S=H-k=8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\metalman\Desktop\git\CREA-GPT5-CaseStudy-Results\intermediate\ResearchPapers\FullPapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E3C3E-EA2C-4A64-995A-F1EE2710814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F1BE5-A177-469D-9088-FF98B9C13B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -696,9 +696,15 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="1">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
